--- a/genshin/432901783973498531_2020-09-09_14-00-01.xlsx
+++ b/genshin/432901783973498531_2020-09-09_14-00-01.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:47:41</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11644675926</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3472674204</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:05:53</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44091.79575231481</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>3472674204</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:03:30</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44091.58576388889</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,10 +786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:53:53</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44088.82908564815</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -851,10 +859,8 @@
           <t>3478194523</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-11 00:12:46</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44085.00886574074</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -922,10 +928,8 @@
           <t>3474973672</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-10 16:48:51</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44084.70059027777</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1001,10 +1005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-10 13:27:10</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44084.56053240741</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1072,10 +1074,8 @@
           <t>3474845430</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-10 13:12:33</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44084.55038194444</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1151,10 +1151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-10 13:11:42</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44084.54979166666</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1232,10 +1230,8 @@
           <t>3475930988</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-10 12:57:25</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44084.53987268519</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1311,10 +1307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-10 12:17:38</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44084.51224537037</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1378,10 +1372,8 @@
           <t>3474845430</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-10 12:01:20</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44084.50092592592</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1457,10 +1449,8 @@
           <t>3474845430</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-10 11:57:16</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44084.49810185185</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1536,10 +1526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-10 11:53:07</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44084.49521990741</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1615,10 +1603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-10 11:22:19</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44084.47383101852</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1686,10 +1672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-10 10:54:59</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44084.45484953704</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1757,10 +1741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-10 09:52:12</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44084.41125</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1833,10 +1815,8 @@
           <t>3475231964</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-10 08:19:24</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44084.34680555556</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1904,10 +1884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-10 08:03:52</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44084.33601851852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1971,10 +1949,8 @@
           <t>3474973672</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-10 08:01:39</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44084.33447916667</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2050,10 +2026,8 @@
           <t>3474973672</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-10 07:32:33</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44084.31427083333</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2125,10 +2099,8 @@
           <t>3474973672</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-10 07:25:48</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44084.30958333334</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2204,10 +2176,8 @@
           <t>3475141149</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-10 07:12:44</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44084.30050925926</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2271,10 +2241,8 @@
           <t>3474973672</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-10 07:05:27</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44084.29545138889</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2346,10 +2314,8 @@
           <t>3474973672</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-10 07:04:47</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44084.29498842593</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2421,10 +2387,8 @@
           <t>3474973672</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-10 07:03:39</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44084.29420138889</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2496,10 +2460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-10 02:52:15</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44084.11961805556</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2563,10 +2525,8 @@
           <t>3474973672</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-10 02:35:41</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44084.10811342593</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2642,10 +2602,8 @@
           <t>3474973672</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-10 02:30:49</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44084.1047337963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2721,10 +2679,8 @@
           <t>3474973294</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-10 02:29:44</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44084.10398148148</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2800,10 +2756,8 @@
           <t>3474972977</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-10 02:28:42</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44084.10326388889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2879,10 +2833,8 @@
           <t>3474972471</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-10 02:27:02</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44084.10210648148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2958,10 +2910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-10 02:26:08</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44084.10148148148</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3037,10 +2987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-10 02:16:08</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44084.09453703704</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3116,10 +3064,8 @@
           <t>3474845430</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-10 02:02:53</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44084.08533564815</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3187,10 +3133,8 @@
           <t>3474888417</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-10 01:22:14</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44084.05710648148</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3266,10 +3210,8 @@
           <t>3474845430</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-10 01:04:41</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44084.04491898148</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -3345,10 +3287,8 @@
           <t>3474845430</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:59:09</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44084.04107638889</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
@@ -3416,10 +3356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:44:19</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44084.03077546296</v>
       </c>
       <c r="I40" t="n">
         <v>20</v>
@@ -3495,10 +3433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:42:54</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44084.02979166667</v>
       </c>
       <c r="I41" t="n">
         <v>6</v>
@@ -3566,10 +3502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:34:07</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44084.02369212963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3641,10 +3575,8 @@
           <t>3474756808</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:26:15</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44084.01822916666</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
@@ -3712,10 +3644,8 @@
           <t>3474755925</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:25:22</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44084.01761574074</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3787,10 +3717,8 @@
           <t>3474744243</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:23:39</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44084.01642361111</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3862,10 +3790,8 @@
           <t>3474742493</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:21:56</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44084.01523148148</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3929,10 +3855,8 @@
           <t>3474623197</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-09 23:47:17</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44083.99116898148</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3996,10 +3920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-09 23:39:06</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44083.98548611111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4059,10 +3981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-09 22:37:30</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44083.94270833334</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -4138,10 +4058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-09 22:20:08</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44083.93064814815</v>
       </c>
       <c r="I50" t="n">
         <v>27</v>
@@ -4218,10 +4136,8 @@
           <t>3474157566</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:56:06</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44083.91395833333</v>
       </c>
       <c r="I51" t="n">
         <v>5</v>
@@ -4298,10 +4214,8 @@
           <t>3474142820</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:52:36</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44083.91152777777</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4377,10 +4291,8 @@
           <t>3474138436</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:52:33</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44083.91149305556</v>
       </c>
       <c r="I53" t="n">
         <v>8</v>
@@ -4457,10 +4369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:44:09</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44083.90565972222</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4528,10 +4438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:27:20</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44083.89398148148</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4595,10 +4503,8 @@
           <t>3473942549</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:16:53</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44083.88672453703</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4662,10 +4568,8 @@
           <t>3474001064</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:16:50</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44083.88668981481</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4729,10 +4633,8 @@
           <t>3473999125</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:16:28</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44083.88643518519</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4796,10 +4698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:05:47</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44083.8790162037</v>
       </c>
       <c r="I59" t="n">
         <v>5</v>
@@ -4867,10 +4767,8 @@
           <t>3473942549</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:02:10</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44083.87650462963</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4934,10 +4832,8 @@
           <t>3473780008</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-09 20:28:17</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44083.85297453704</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5013,10 +4909,8 @@
           <t>3473780008</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-09 20:21:02</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44083.84793981481</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5080,10 +4974,8 @@
           <t>3473780008</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-09 20:18:38</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44083.84627314815</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5147,10 +5039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-09 20:18:09</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44083.8459375</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5222,10 +5112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-09 20:09:19</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44083.83980324074</v>
       </c>
       <c r="I65" t="n">
         <v>12</v>
@@ -5289,10 +5177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-09 19:35:36</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44083.81638888889</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5356,10 +5242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-09 19:26:57</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44083.81038194444</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5423,10 +5307,8 @@
           <t>3473384513</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:54:15</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44083.78767361111</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5502,10 +5384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:40:46</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44083.77831018518</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5525,9 +5405,10 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M69">
-        <f>_=</f>
-        <v/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>=_=</t>
+        </is>
       </c>
       <c r="N69" t="n">
         <v>5</v>
@@ -5572,10 +5453,8 @@
           <t>3473384513</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:38:58</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44083.77706018519</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5647,10 +5526,8 @@
           <t>3473369292</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:34:48</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44083.77416666667</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5718,10 +5595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:29:55</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44083.77077546297</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5796,10 +5671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:12:36</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44083.75875</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5867,10 +5740,8 @@
           <t>3473146774</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:31:41</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44083.73033564815</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5946,10 +5817,8 @@
           <t>3473129692</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:26:10</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44083.72650462963</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -6009,10 +5878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:25:37</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44083.72612268518</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6076,10 +5943,8 @@
           <t>3473098382</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:17:55</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44083.72077546296</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6143,10 +6008,8 @@
           <t>3473098382</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:14:43</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44083.71855324074</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6218,10 +6081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:11:38</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44083.71641203704</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6285,10 +6146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:00:38</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44083.70877314815</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6352,10 +6211,8 @@
           <t>3472650276</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:59:10</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44083.70775462963</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6423,10 +6280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:58:16</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44083.70712962963</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6502,10 +6357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:57:54</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44083.706875</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6581,10 +6434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:53:22</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44083.70372685185</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6656,10 +6507,8 @@
           <t>3473028239</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:51:16</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44083.70226851852</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6735,10 +6584,8 @@
           <t>3473015928</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:43:37</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44083.69695601852</v>
       </c>
       <c r="I86" t="n">
         <v>7</v>
@@ -6814,10 +6661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:30:42</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44083.68798611111</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6893,10 +6738,8 @@
           <t>3472650276</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:22:35</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44083.68234953703</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6968,10 +6811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:20:14</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44083.68071759259</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
@@ -7035,10 +6876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:15:37</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44083.67751157407</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7115,10 +6954,8 @@
           <t>3472946860</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:14:55</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44083.67702546297</v>
       </c>
       <c r="I91" t="n">
         <v>4</v>
@@ -7186,10 +7023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:09:58</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44083.67358796296</v>
       </c>
       <c r="I92" t="n">
         <v>5</v>
@@ -7265,10 +7100,8 @@
           <t>3472903827</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:58:41</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44083.66575231482</v>
       </c>
       <c r="I93" t="n">
         <v>2</v>
@@ -7332,10 +7165,8 @@
           <t>3472872262</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:44:04</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44083.65560185185</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7411,10 +7242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:39:36</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44083.6525</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7486,10 +7315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:23:34</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44083.64136574074</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7558,10 +7385,8 @@
           <t>3472812679</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:18:24</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44083.63777777777</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7625,10 +7450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:15:15</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44083.63559027778</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7700,10 +7523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:14:32</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44083.63509259259</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7771,10 +7592,8 @@
           <t>3472805063</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:14:26</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44083.63502314815</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7838,10 +7657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:13:19</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44083.63424768519</v>
       </c>
       <c r="I101" t="n">
         <v>6</v>
@@ -7917,10 +7734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:11:01</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44083.63265046296</v>
       </c>
       <c r="I102" t="n">
         <v>2</v>
@@ -7996,10 +7811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:08:01</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44083.63056712963</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8071,10 +7884,8 @@
           <t>3472650276</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:02:40</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44083.62685185186</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8150,10 +7961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:42:11</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44083.61262731482</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8225,10 +8034,8 @@
           <t>3472650276</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:41:03</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44083.61184027778</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8304,10 +8111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:39:40</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44083.61087962963</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8375,10 +8180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:39:22</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44083.61067129629</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8455,10 +8258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:38:50</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44083.61030092592</v>
       </c>
       <c r="I109" t="n">
         <v>79</v>
@@ -8534,10 +8335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:38:31</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44083.61008101852</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8605,10 +8404,8 @@
           <t>3472650276</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:38:16</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44083.60990740741</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8684,10 +8481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:34:46</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44083.60747685185</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8755,10 +8550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:32:33</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44083.6059375</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8834,10 +8627,8 @@
           <t>3472650276</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:31:58</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44083.6055324074</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8909,10 +8700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:31:54</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44083.60548611111</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8984,10 +8773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:30:05</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44083.60422453703</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9060,10 +8847,8 @@
           <t>3472692985</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:25:44</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44083.60120370371</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9131,10 +8916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:25:32</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44083.60106481481</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9202,10 +8985,8 @@
           <t>3472674204</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:20:19</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44083.59744212963</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9281,10 +9062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:19:54</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44083.59715277778</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9356,10 +9135,8 @@
           <t>3472677385</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:18:42</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44083.59631944444</v>
       </c>
       <c r="I121" t="n">
         <v>34</v>
@@ -9435,10 +9212,8 @@
           <t>3472674204</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:18:13</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44083.59598379629</v>
       </c>
       <c r="I122" t="n">
         <v>5</v>
@@ -9514,10 +9289,8 @@
           <t>3472680899</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:16:41</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44083.59491898148</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9593,10 +9366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:16:35</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44083.59484953704</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9672,10 +9443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:15:44</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44083.59425925926</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9743,10 +9512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:14:32</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44083.59342592592</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9818,10 +9585,8 @@
           <t>3472671182</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:14:13</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44083.59320601852</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9897,10 +9662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:13:45</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44083.59288194445</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9972,10 +9735,8 @@
           <t>3472638960</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:12:51</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44083.59225694444</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10043,10 +9804,8 @@
           <t>3472667161</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:11:47</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44083.59151620371</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10122,10 +9881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:11:06</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44083.59104166667</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10201,10 +9958,8 @@
           <t>3472650276</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:10:23</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44083.59054398148</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10280,10 +10035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:09:57</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44083.59024305556</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10351,10 +10104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:08:47</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44083.58943287037</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10426,10 +10177,8 @@
           <t>3472654385</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:08:10</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44083.58900462963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10497,10 +10246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:08:08</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44083.58898148148</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10576,10 +10323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:07:25</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44083.58848379629</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10648,10 +10393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:07:14</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44083.58835648148</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10719,10 +10462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:06:50</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44083.5880787037</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10790,10 +10531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:05:58</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44083.58747685186</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10869,10 +10608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:05:51</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44083.58739583333</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10944,10 +10681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:05:11</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44083.58693287037</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -11011,10 +10746,8 @@
           <t>3472650276</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:04:43</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44083.58660879629</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -11078,10 +10811,8 @@
           <t>3472638960</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:04:43</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44083.58660879629</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11151,10 +10882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:04:26</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44083.58641203704</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11233,10 +10962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:04:09</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44083.58621527778</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11313,10 +11040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:04:07</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44083.58619212963</v>
       </c>
       <c r="I147" t="n">
         <v>248</v>
@@ -11392,10 +11117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:03:29</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44083.58575231482</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11467,10 +11190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:03:24</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44083.58569444445</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11534,10 +11255,8 @@
           <t>3472650276</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:02:59</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44083.58540509259</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -11597,10 +11316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:02:37</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44083.58515046296</v>
       </c>
       <c r="I151" t="n">
         <v>325</v>
@@ -11660,10 +11377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:02:15</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44083.58489583333</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11739,10 +11454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:02:11</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44083.58484953704</v>
       </c>
       <c r="I153" t="n">
         <v>127</v>
@@ -11818,10 +11531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:02:10</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44083.58483796296</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11893,10 +11604,8 @@
           <t>3472634648</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:02:07</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44083.58480324074</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11972,10 +11681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:52</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44083.58462962963</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -12043,10 +11750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:51</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44083.58461805555</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12122,10 +11827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:41</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44083.58450231481</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12201,10 +11904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:35</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44083.58443287037</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12280,10 +11981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:32</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44083.58439814814</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12347,10 +12046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:30</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44083.584375</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12429,10 +12126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:29</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44083.58436342593</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12508,10 +12203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:24</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44083.58430555555</v>
       </c>
       <c r="I163" t="n">
         <v>23</v>
@@ -12577,10 +12270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:17</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44083.58422453704</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12648,10 +12339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:15</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44083.58420138889</v>
       </c>
       <c r="I165" t="n">
         <v>32</v>
@@ -12727,10 +12416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:10</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44083.58414351852</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12807,10 +12494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:07</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44083.5841087963</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12886,10 +12571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:00:44</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44083.58384259259</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12957,10 +12640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:00:25</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44083.58362268518</v>
       </c>
       <c r="I169" t="n">
         <v>417</v>
@@ -13028,10 +12709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:00:23</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44083.58359953704</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
